--- a/data_raw/2021_06_24_Zooplankton.xlsx
+++ b/data_raw/2021_06_24_Zooplankton.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschrist\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/van_norden_aquabio/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BED757F-743F-1449-9784-DA1DD1B64113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27960" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZOOP" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="190">
   <si>
     <t>Site</t>
   </si>
@@ -79,19 +92,10 @@
     <t>Species</t>
   </si>
   <si>
-    <t>male/female</t>
-  </si>
-  <si>
     <t>LifeStage</t>
   </si>
   <si>
     <t>abundance</t>
-  </si>
-  <si>
-    <t>Gravid_Y_N</t>
-  </si>
-  <si>
-    <t>Total_eggs</t>
   </si>
   <si>
     <t>QC</t>
@@ -604,9 +608,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1170,7 +1174,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1491,22 +1495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="17" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="17" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1573,25 +1575,16 @@
       <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13">
         <v>44371</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1600,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H2">
         <v>153</v>
@@ -1645,27 +1638,27 @@
         <v>Acanthocyclops</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="Y2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13">
         <v>44371</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1674,10 +1667,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H3">
         <v>153</v>
@@ -1719,27 +1712,27 @@
         <v>Cyclopidae</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3">
         <v>2</v>
       </c>
-      <c r="Y3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="13">
         <v>44371</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1748,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H4">
         <v>153</v>
@@ -1793,27 +1786,27 @@
         <v>Calanoida</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="Y4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" s="13">
         <v>44371</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1822,10 +1815,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H5">
         <v>153</v>
@@ -1867,27 +1860,27 @@
         <v>Harpacticoida</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5">
+        <v>98</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5">
         <v>78</v>
       </c>
-      <c r="Y5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6" s="13">
         <v>44371</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1896,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H6">
         <v>153</v>
@@ -1941,27 +1934,27 @@
         <v>Bosmina</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6">
+        <v>59</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6">
         <v>1</v>
       </c>
-      <c r="Y6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B7" s="13">
         <v>44371</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1970,10 +1963,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H7">
         <v>153</v>
@@ -2015,27 +2008,27 @@
         <v>polychaeta</v>
       </c>
       <c r="S7" t="s">
-        <v>185</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7">
+        <v>182</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="Y7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8" s="13">
         <v>44371</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2044,10 +2037,10 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8">
         <v>153</v>
@@ -2089,27 +2082,27 @@
         <v>Chironomidae</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8">
         <v>118</v>
       </c>
-      <c r="Y8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B9" s="13">
         <v>44371</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2118,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H9">
         <v>153</v>
@@ -2163,27 +2156,27 @@
         <v>oligocheate</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="Y9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B10" s="13">
         <v>44371</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2192,10 +2185,10 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H10">
         <v>153</v>
@@ -2237,27 +2230,27 @@
         <v>Nematoda</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="Y10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B11" s="13">
         <v>44371</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -2266,10 +2259,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H11">
         <v>153</v>
@@ -2311,27 +2304,27 @@
         <v>Hydra</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
-      </c>
-      <c r="U11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11">
+        <v>122</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="Y11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B12" s="13">
         <v>44371</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -2340,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H12">
         <v>153</v>
@@ -2385,27 +2378,27 @@
         <v>0</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="U12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12">
+        <v>185</v>
+      </c>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12">
         <v>1</v>
       </c>
-      <c r="Y12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B13" s="13">
         <v>44371</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2414,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H13">
         <v>153</v>
@@ -2459,27 +2452,27 @@
         <v>Chironomidae</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" t="s">
-        <v>169</v>
-      </c>
-      <c r="V13">
+        <v>85</v>
+      </c>
+      <c r="T13" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13">
         <v>1</v>
       </c>
-      <c r="Y13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B14" s="13">
         <v>44371</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2488,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H14">
         <v>153</v>
@@ -2533,27 +2526,27 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U14" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14">
+        <v>113</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14">
         <v>1</v>
       </c>
-      <c r="Y14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="13">
         <v>44371</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2562,10 +2555,10 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H15">
         <v>153</v>
@@ -2607,27 +2600,27 @@
         <v>Acanthocyclops</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15">
+        <v>53</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15">
         <v>37</v>
       </c>
-      <c r="Y15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="13">
         <v>44371</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -2636,10 +2629,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H16">
         <v>153</v>
@@ -2681,27 +2674,27 @@
         <v>Acanthocyclops</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16">
+        <v>53</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="Y16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="13">
         <v>44371</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2710,10 +2703,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17">
         <v>153</v>
@@ -2755,27 +2748,27 @@
         <v>Calanoida</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" t="s">
-        <v>37</v>
-      </c>
-      <c r="V17">
+        <v>55</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17">
         <v>3</v>
       </c>
-      <c r="Y17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" s="13">
         <v>44371</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2784,10 +2777,10 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H18">
         <v>153</v>
@@ -2829,27 +2822,27 @@
         <v>Harpacticoida</v>
       </c>
       <c r="S18" t="s">
-        <v>101</v>
-      </c>
-      <c r="U18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18">
+        <v>98</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18">
         <v>118</v>
       </c>
-      <c r="Y18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B19" s="13">
         <v>44371</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2858,10 +2851,10 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H19">
         <v>153</v>
@@ -2903,27 +2896,27 @@
         <v>Bosmina</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
-      </c>
-      <c r="U19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19">
+        <v>59</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="Y19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B20" s="13">
         <v>44371</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2932,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20">
         <v>153</v>
@@ -2977,27 +2970,27 @@
         <v>Chydorus</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" t="s">
-        <v>32</v>
-      </c>
-      <c r="V20">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
-      <c r="Y20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" s="13">
         <v>44371</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3006,10 +2999,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H21">
         <v>153</v>
@@ -3051,27 +3044,27 @@
         <v>Alona</v>
       </c>
       <c r="S21" t="s">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21">
         <v>1</v>
       </c>
-      <c r="Y21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="13">
         <v>44371</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3080,10 +3073,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H22">
         <v>153</v>
@@ -3125,27 +3118,27 @@
         <v>ilyocryptus</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V22">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22">
         <v>1</v>
       </c>
-      <c r="Y22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B23" s="13">
         <v>44371</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3154,10 +3147,10 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H23">
         <v>153</v>
@@ -3199,27 +3192,27 @@
         <v>Eucypris</v>
       </c>
       <c r="S23" t="s">
-        <v>118</v>
-      </c>
-      <c r="U23" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23">
+        <v>115</v>
+      </c>
+      <c r="T23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23">
         <v>53</v>
       </c>
-      <c r="Y23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B24" s="13">
         <v>44371</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3228,10 +3221,10 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H24">
         <v>153</v>
@@ -3273,27 +3266,27 @@
         <v>Ilyocypris</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
-      </c>
-      <c r="U24" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24">
+        <v>104</v>
+      </c>
+      <c r="T24" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24">
         <v>10</v>
       </c>
-      <c r="Y24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25" s="13">
         <v>44371</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -3302,10 +3295,10 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H25">
         <v>153</v>
@@ -3347,27 +3340,27 @@
         <v>Rotifera</v>
       </c>
       <c r="S25" t="s">
-        <v>85</v>
-      </c>
-      <c r="U25" t="s">
-        <v>32</v>
-      </c>
-      <c r="V25">
+        <v>82</v>
+      </c>
+      <c r="T25" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25">
         <v>1</v>
       </c>
-      <c r="Y25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B26" s="13">
         <v>44371</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3376,10 +3369,10 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H26">
         <v>153</v>
@@ -3421,27 +3414,27 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
-      </c>
-      <c r="U26" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26">
         <v>1</v>
       </c>
-      <c r="Y26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B27" s="13">
         <v>44371</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -3450,10 +3443,10 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H27">
         <v>153</v>
@@ -3495,27 +3488,27 @@
         <v>Chironomidae</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
-      </c>
-      <c r="U27" t="s">
-        <v>74</v>
-      </c>
-      <c r="V27">
+        <v>85</v>
+      </c>
+      <c r="T27" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27">
         <v>24</v>
       </c>
-      <c r="Y27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B28" s="13">
         <v>44371</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -3524,10 +3517,10 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H28">
         <v>153</v>
@@ -3569,27 +3562,27 @@
         <v>Nematoda</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
-      </c>
-      <c r="U28" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28">
+        <v>94</v>
+      </c>
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28">
         <v>19</v>
       </c>
-      <c r="Y28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B29" s="13">
         <v>44371</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3598,10 +3591,10 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H29">
         <v>153</v>
@@ -3643,27 +3636,27 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>134</v>
-      </c>
-      <c r="U29" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29">
+        <v>131</v>
+      </c>
+      <c r="T29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29">
         <v>1</v>
       </c>
-      <c r="Y29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="13">
         <v>44371</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -3672,10 +3665,10 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H30">
         <v>153</v>
@@ -3717,16 +3710,16 @@
         <v>Diptera</v>
       </c>
       <c r="S30" t="s">
-        <v>89</v>
-      </c>
-      <c r="U30" t="s">
-        <v>74</v>
-      </c>
-      <c r="V30">
+        <v>86</v>
+      </c>
+      <c r="T30" t="s">
+        <v>71</v>
+      </c>
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="Y30" t="s">
-        <v>192</v>
+      <c r="V30" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3736,25 +3729,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -3777,1505 +3770,1505 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G58" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="G68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D70" s="6">
         <v>0</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -5287,44 +5280,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" s="6">
         <v>0</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -5333,42 +5326,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" s="6">
         <v>0</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
@@ -5377,21 +5370,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F76" s="6">
         <v>0</v>
@@ -5400,15 +5393,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77" s="6">
         <v>0</v>
@@ -5423,134 +5416,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F83" s="6">
         <v>0</v>
@@ -5559,19 +5552,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" s="6">
         <v>0</v>
@@ -5580,84 +5573,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F88" s="6">
         <v>0</v>
@@ -5666,19 +5659,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
@@ -5687,19 +5680,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
@@ -5708,38 +5701,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F92" s="6">
         <v>0</v>
@@ -5748,116 +5741,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
